--- a/sprint-1-bd/OpFlix/OpFlix.xlsx
+++ b/sprint-1-bd/OpFlix/OpFlix.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erikv\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\senai-dev-2s2019\sprint-1-bd\opflix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A21410-E621-4E46-BE52-06F253136450}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{9B79CC05-8447-41AA-AC4F-9937EC56A3F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Usuários" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Catalogo!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t>Nome</t>
   </si>
@@ -55,42 +54,9 @@
     <t>Roberto</t>
   </si>
   <si>
-    <t>erik@gmail.com</t>
-  </si>
-  <si>
-    <t>cassiana@uol.com</t>
-  </si>
-  <si>
-    <t>helena@terra.com</t>
-  </si>
-  <si>
-    <t>rob@hotmail.com</t>
-  </si>
-  <si>
-    <t>Jucelino</t>
-  </si>
-  <si>
-    <t>ju.celino@gmail.com</t>
-  </si>
-  <si>
     <t>Erik</t>
   </si>
   <si>
-    <t>Vinicius</t>
-  </si>
-  <si>
-    <t>vi@gmail.com</t>
-  </si>
-  <si>
-    <t>Viviane</t>
-  </si>
-  <si>
-    <t>vivi@terra.com</t>
-  </si>
-  <si>
-    <t>a1b2c3</t>
-  </si>
-  <si>
     <t>Sinopse</t>
   </si>
   <si>
@@ -167,12 +133,33 @@
   </si>
   <si>
     <t>Série</t>
+  </si>
+  <si>
+    <t>erik@email.com</t>
+  </si>
+  <si>
+    <t>cassiana@email.com</t>
+  </si>
+  <si>
+    <t>helena@email.com</t>
+  </si>
+  <si>
+    <t>rob@email.com</t>
+  </si>
+  <si>
+    <t>Tipo de Usuário</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,11 +524,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8085472-3723-4D59-8811-3A1FC46714DA}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +538,7 @@
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,104 +548,83 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123456</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123456</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>3110</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>132110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1">
-        <v>31131210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
+      <c r="D5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{B24985E7-CFE3-45E1-B7C3-29A48866AA06}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{FDD8288A-D396-43E2-9FF6-823EF794224C}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6B064254-B839-413C-833D-F70896D17EC1}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{991F03C3-A523-4C57-B777-D2E740CD5305}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{01263C2A-757C-4233-9B80-9472E0C5746A}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{8BD700C8-8893-42C7-B090-A52FA63EBB29}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{D466303B-193F-426F-9130-829DE9A095ED}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42536F4F-41C2-4C23-BFBA-7E9E2CE6AE4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,33 +643,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>118</v>
@@ -712,24 +678,24 @@
         <v>43664</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>650</v>
@@ -738,24 +704,24 @@
         <v>43665</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>620</v>
@@ -764,24 +730,24 @@
         <v>42855</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -790,20 +756,20 @@
         <v>43636</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:H1">
+  <sortState ref="A1:H1">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
